--- a/medicine/Psychotrope/Teku_(verre)/Teku_(verre).xlsx
+++ b/medicine/Psychotrope/Teku_(verre)/Teku_(verre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le verre TeKu (ou simplement Teku) est un verre qui a été spécialement conçu pour la dégustation de la bière.
 Il doit son nom à ses inventeurs, les Italiens Teo Musso, de la brasserie Baladin et Lorenzo Dabove, surnommé "Kuaska", zythologue italien. 
-Le mot "Teku" est un mot-valise des deux premières lettres des noms des créateurs : Teo-Kuaska[1]. 
-Il est fabriqué par le verrier allemand Rastal et est disponible en deux tailles différentes[2] :
+Le mot "Teku" est un mot-valise des deux premières lettres des noms des créateurs : Teo-Kuaska. 
+Il est fabriqué par le verrier allemand Rastal et est disponible en deux tailles différentes :
 standard, 42.4 cl, permet de servir l'entier d'une bouteille 33 cl
 mini, 33 cl, permet de servir jusqu'à environ 25 cl
 Il possède une forme particulière : 
